--- a/matlab/Finalise_data/Hawkesbury Field Data Summary.xlsx
+++ b/matlab/Finalise_data/Hawkesbury Field Data Summary.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\Hawkesbury\matlab\Finalise_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593050FE-E58A-44D1-80D4-18FEF31AEE0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800BCC1D-B075-4A9E-98C2-E6E437253B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site_Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1107,7 +1117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1293,6 +1303,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1469,7 +1485,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1486,6 +1502,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1909,8 +1935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="I157" workbookViewId="0">
+      <selection activeCell="I152" sqref="I152:BN152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7562,7 +7588,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I33" s="1" t="s">
         <v>38</v>
       </c>
@@ -7738,7 +7764,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I34" s="1" t="s">
         <v>39</v>
       </c>
@@ -7914,7 +7940,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I35" s="1" t="s">
         <v>40</v>
       </c>
@@ -8090,7 +8116,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I36" s="1" t="s">
         <v>41</v>
       </c>
@@ -8266,7 +8292,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I37" s="1" t="s">
         <v>42</v>
       </c>
@@ -8442,183 +8468,191 @@
         <v>304</v>
       </c>
     </row>
-    <row r="38" spans="9:66" x14ac:dyDescent="0.25">
-      <c r="I38" s="1" t="s">
+    <row r="38" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="6">
         <v>309001.65999999997</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L38" s="6">
         <v>6282385.5300000003</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="6">
         <v>10</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="7">
         <v>38362</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="7">
         <v>40402</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="6">
         <v>1410</v>
       </c>
-      <c r="Q38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="T38" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="U38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="W38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="X38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB38" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI38" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AK38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AL38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN38" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AO38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AP38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ38" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AS38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AT38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AW38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX38" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AY38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AZ38" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BA38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BB38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BC38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BD38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BE38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BF38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BI38" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BJ38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BK38" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BL38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM38" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BN38" s="5" t="s">
+      <c r="Q38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="U38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="V38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="W38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="X38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB38" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI38" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN38" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ38" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AW38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX38" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ38" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BA38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BD38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BE38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BG38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI38" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BJ38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BK38" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BM38" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN38" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I39" s="1" t="s">
         <v>44</v>
       </c>
@@ -8794,359 +8828,375 @@
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="9:66" x14ac:dyDescent="0.25">
-      <c r="I40" s="1" t="s">
+    <row r="40" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="6">
         <v>307503.02</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L40" s="6">
         <v>6273091.29</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="6">
         <v>10</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40" s="7">
         <v>39309</v>
       </c>
-      <c r="O40" s="2">
+      <c r="O40" s="7">
         <v>43465</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="6">
         <v>2640</v>
       </c>
-      <c r="Q40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="S40" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="T40" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="U40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="V40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="W40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="X40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB40" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI40" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AK40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AL40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN40" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AO40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AP40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ40" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AS40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AT40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AW40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX40" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AY40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AZ40" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BA40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BB40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BC40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BD40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BE40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BF40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BI40" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BJ40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BK40" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BL40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM40" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BN40" s="5" t="s">
+      <c r="Q40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="T40" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="U40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="V40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="W40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="X40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB40" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI40" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN40" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ40" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AW40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX40" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ40" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BA40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BD40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BE40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BG40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI40" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BJ40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BK40" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BM40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN40" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="9:66" x14ac:dyDescent="0.25">
-      <c r="I41" s="1" t="s">
+    <row r="41" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="6">
         <v>307101.5</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="6">
         <v>6272698.4199999999</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="6">
         <v>7</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41" s="7">
         <v>39309</v>
       </c>
-      <c r="O41" s="2">
+      <c r="O41" s="7">
         <v>40402</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="6">
         <v>609</v>
       </c>
-      <c r="Q41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="T41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="U41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="V41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="X41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB41" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI41" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AK41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AL41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN41" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AO41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AP41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ41" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AS41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AT41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AW41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX41" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AY41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AZ41" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BA41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BB41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BC41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BD41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BE41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BF41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BI41" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BJ41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BK41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM41" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BN41" s="5" t="s">
+      <c r="Q41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="U41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="X41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB41" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI41" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN41" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ41" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AW41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX41" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ41" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BA41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BD41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BE41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BG41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI41" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BJ41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BK41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BL41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BM41" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN41" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I42" s="1" t="s">
         <v>47</v>
       </c>
@@ -9322,7 +9372,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I43" s="1" t="s">
         <v>48</v>
       </c>
@@ -9498,7 +9548,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="44" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I44" s="1" t="s">
         <v>49</v>
       </c>
@@ -9674,7 +9724,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I45" s="1" t="s">
         <v>50</v>
       </c>
@@ -9850,7 +9900,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="46" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I46" s="1" t="s">
         <v>51</v>
       </c>
@@ -10026,7 +10076,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I47" s="1" t="s">
         <v>52</v>
       </c>
@@ -10202,7 +10252,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="48" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I48" s="1" t="s">
         <v>53</v>
       </c>
@@ -10378,7 +10428,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I49" s="1" t="s">
         <v>54</v>
       </c>
@@ -10554,7 +10604,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="50" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I50" s="1" t="s">
         <v>55</v>
       </c>
@@ -10730,7 +10780,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="51" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I51" s="1" t="s">
         <v>56</v>
       </c>
@@ -10906,7 +10956,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="52" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I52" s="1" t="s">
         <v>57</v>
       </c>
@@ -11082,7 +11132,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="53" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I53" s="1" t="s">
         <v>58</v>
       </c>
@@ -11258,7 +11308,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="54" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I54" s="1" t="s">
         <v>59</v>
       </c>
@@ -11434,7 +11484,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="55" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I55" s="1" t="s">
         <v>60</v>
       </c>
@@ -11610,7 +11660,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="56" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I56" s="1" t="s">
         <v>61</v>
       </c>
@@ -11786,7 +11836,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="57" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I57" s="1" t="s">
         <v>62</v>
       </c>
@@ -11962,7 +12012,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="58" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I58" s="1" t="s">
         <v>63</v>
       </c>
@@ -12138,7 +12188,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="59" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I59" s="1" t="s">
         <v>64</v>
       </c>
@@ -12314,7 +12364,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I60" s="1" t="s">
         <v>65</v>
       </c>
@@ -12490,535 +12540,559 @@
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="9:66" x14ac:dyDescent="0.25">
-      <c r="I61" s="1" t="s">
+    <row r="61" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61" s="6">
         <v>308096.90999999997</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L61" s="6">
         <v>6273756.6900000004</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61" s="6">
         <v>10</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N61" s="7">
         <v>43167</v>
       </c>
-      <c r="O61" s="2">
+      <c r="O61" s="7">
         <v>43377</v>
       </c>
-      <c r="P61" s="1">
+      <c r="P61" s="6">
         <v>100</v>
       </c>
-      <c r="Q61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="R61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="S61" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="T61" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="U61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="V61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="W61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="X61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB61" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI61" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AK61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AL61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN61" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AO61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AP61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ61" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AS61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AT61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AW61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX61" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AY61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AZ61" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BA61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BB61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BC61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BD61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BE61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BF61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BI61" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BJ61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BK61" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BL61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM61" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BN61" s="5" t="s">
+      <c r="Q61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="R61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="S61" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="T61" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="U61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="V61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="W61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="X61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB61" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI61" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN61" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ61" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AW61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX61" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ61" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BA61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BD61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BE61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BG61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI61" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BJ61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BK61" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BM61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN61" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="9:66" x14ac:dyDescent="0.25">
-      <c r="I62" s="1" t="s">
+    <row r="62" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62" s="6">
         <v>313130.78000000003</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L62" s="6">
         <v>6268038.5700000003</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62" s="6">
         <v>10</v>
       </c>
-      <c r="N62" s="2">
+      <c r="N62" s="7">
         <v>43167</v>
       </c>
-      <c r="O62" s="2">
+      <c r="O62" s="7">
         <v>43465</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P62" s="6">
         <v>150</v>
       </c>
-      <c r="Q62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="R62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="S62" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="T62" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="U62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="V62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="W62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="X62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB62" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI62" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AK62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AL62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN62" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AO62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AP62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ62" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AS62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AT62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AW62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX62" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AY62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AZ62" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BA62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BB62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BC62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BD62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BE62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BF62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BI62" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BJ62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BK62" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BL62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BN62" s="5" t="s">
+      <c r="Q62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="R62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="S62" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="T62" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="U62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="V62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="W62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="X62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB62" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI62" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN62" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ62" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AW62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX62" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ62" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BA62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BD62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BE62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BG62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI62" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BJ62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BK62" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BM62" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN62" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="9:66" x14ac:dyDescent="0.25">
-      <c r="I63" s="1" t="s">
+    <row r="63" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63" s="6">
         <v>313049.55</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L63" s="6">
         <v>6267689.6299999999</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63" s="6">
         <v>10</v>
       </c>
-      <c r="N63" s="2">
+      <c r="N63" s="7">
         <v>43167</v>
       </c>
-      <c r="O63" s="2">
+      <c r="O63" s="7">
         <v>43465</v>
       </c>
-      <c r="P63" s="1">
+      <c r="P63" s="6">
         <v>150</v>
       </c>
-      <c r="Q63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="R63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="S63" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="T63" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="U63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="V63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="W63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="X63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB63" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI63" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AK63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AL63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN63" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AO63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AP63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ63" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AS63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AT63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AW63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX63" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AY63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AZ63" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BA63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BB63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BC63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BD63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BE63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BF63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BI63" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BJ63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BK63" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BL63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM63" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BN63" s="5" t="s">
+      <c r="Q63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="R63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="S63" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="T63" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="U63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="V63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="W63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="X63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB63" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI63" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN63" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ63" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AW63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX63" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ63" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BA63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BD63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BE63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BG63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI63" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BJ63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BK63" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BM63" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN63" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="64" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I64" s="1" t="s">
         <v>69</v>
       </c>
@@ -27274,7 +27348,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="145" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I145" s="1" t="s">
         <v>150</v>
       </c>
@@ -27450,7 +27524,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="146" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I146" s="1" t="s">
         <v>151</v>
       </c>
@@ -27626,7 +27700,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="147" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I147" s="1" t="s">
         <v>152</v>
       </c>
@@ -27802,7 +27876,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="148" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I148" s="1" t="s">
         <v>153</v>
       </c>
@@ -27978,7 +28052,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="149" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I149" s="1" t="s">
         <v>154</v>
       </c>
@@ -28154,7 +28228,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="150" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I150" s="1" t="s">
         <v>155</v>
       </c>
@@ -28330,7 +28404,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="151" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I151" s="1" t="s">
         <v>156</v>
       </c>
@@ -28506,183 +28580,191 @@
         <v>304</v>
       </c>
     </row>
-    <row r="152" spans="9:66" x14ac:dyDescent="0.25">
-      <c r="I152" s="1" t="s">
+    <row r="152" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="J152" s="1" t="s">
+      <c r="J152" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="K152" s="1">
+      <c r="K152" s="6">
         <v>307958.61259999999</v>
       </c>
-      <c r="L152" s="1">
+      <c r="L152" s="6">
         <v>6280351.4556</v>
       </c>
-      <c r="M152" s="1">
+      <c r="M152" s="6">
         <v>19</v>
       </c>
-      <c r="N152" s="2">
+      <c r="N152" s="7">
         <v>43433</v>
       </c>
-      <c r="O152" s="2">
+      <c r="O152" s="7">
         <v>43433</v>
       </c>
-      <c r="P152" s="1">
+      <c r="P152" s="6">
         <v>19</v>
       </c>
-      <c r="Q152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="R152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="S152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="T152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="U152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="V152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="W152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="X152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AI152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AK152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AL152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AO152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AP152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AS152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AT152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AV152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AW152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AY152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AZ152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BA152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BB152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BC152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BD152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BE152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BF152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BI152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BJ152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BK152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BL152" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM152" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BN152" s="5" t="s">
+      <c r="Q152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="R152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="S152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="T152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="U152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="V152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="W152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="X152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AS152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AW152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AZ152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BA152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BB152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BC152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BD152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BE152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BG152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BJ152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BK152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL152" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BM152" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BN152" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="153" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I153" s="1" t="s">
         <v>158</v>
       </c>
@@ -28858,7 +28940,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="154" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I154" s="1" t="s">
         <v>159</v>
       </c>
@@ -29034,7 +29116,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I155" s="1" t="s">
         <v>160</v>
       </c>
@@ -29210,7 +29292,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="156" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I156" s="1" t="s">
         <v>161</v>
       </c>
@@ -29386,7 +29468,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="157" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I157" s="1" t="s">
         <v>162</v>
       </c>
@@ -29562,7 +29644,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="158" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I158" s="1" t="s">
         <v>163</v>
       </c>
@@ -29738,7 +29820,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="159" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I159" s="1" t="s">
         <v>164</v>
       </c>
@@ -29914,7 +29996,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="160" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:66" x14ac:dyDescent="0.25">
       <c r="I160" s="1" t="s">
         <v>165</v>
       </c>

--- a/matlab/Finalise_data/Hawkesbury Field Data Summary.xlsx
+++ b/matlab/Finalise_data/Hawkesbury Field Data Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\Hawkesbury\matlab\Finalise_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\Finalise_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800BCC1D-B075-4A9E-98C2-E6E437253B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7C022E-88C5-453B-B482-18BC8E5D62F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site_Summary" sheetId="1" r:id="rId1"/>
@@ -1935,28 +1935,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I157" workbookViewId="0">
-      <selection activeCell="I152" sqref="I152:BN152"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39:BN39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="70.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="70.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="70.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="66" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="66" width="3.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:66" ht="152.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="9:66" ht="159" x14ac:dyDescent="0.35">
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="2" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="4" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I8" s="1" t="s">
         <v>13</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="10" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I10" s="1" t="s">
         <v>15</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="12" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I12" s="1" t="s">
         <v>17</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I13" s="1" t="s">
         <v>18</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="14" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I14" s="1" t="s">
         <v>19</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I15" s="1" t="s">
         <v>20</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="16" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I16" s="1" t="s">
         <v>21</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I17" s="1" t="s">
         <v>22</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I18" s="1" t="s">
         <v>23</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I19" s="1" t="s">
         <v>24</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I20" s="1" t="s">
         <v>25</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I21" s="1" t="s">
         <v>26</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I22" s="1" t="s">
         <v>27</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I23" s="1" t="s">
         <v>28</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I24" s="1" t="s">
         <v>29</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="25" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I25" s="1" t="s">
         <v>30</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I26" s="1" t="s">
         <v>31</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I27" s="1" t="s">
         <v>32</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I28" s="1" t="s">
         <v>33</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I29" s="1" t="s">
         <v>34</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I30" s="1" t="s">
         <v>35</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="31" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I31" s="1" t="s">
         <v>36</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="32" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I32" s="1" t="s">
         <v>37</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I33" s="1" t="s">
         <v>38</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I34" s="1" t="s">
         <v>39</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I35" s="1" t="s">
         <v>40</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I36" s="1" t="s">
         <v>41</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I37" s="1" t="s">
         <v>42</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="38" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -8652,183 +8652,191 @@
         <v>304</v>
       </c>
     </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="I39" s="1" t="s">
+    <row r="39" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="6">
         <v>307957.96000000002</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L39" s="6">
         <v>6280347</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="6">
         <v>7</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="7">
         <v>39309</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="7">
         <v>40402</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="6">
         <v>273</v>
       </c>
-      <c r="Q39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="S39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="T39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="U39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="W39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="X39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB39" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AE39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AG39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI39" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AK39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AL39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AM39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN39" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AO39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AP39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AQ39" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AR39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AS39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AT39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AU39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AV39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AW39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AX39" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="AY39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="AZ39" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BA39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BB39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BC39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BD39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BE39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BF39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BH39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BI39" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="BJ39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BK39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BL39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BM39" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BN39" s="5" t="s">
+      <c r="Q39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="U39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="W39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="X39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB39" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AE39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI39" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AK39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN39" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AQ39" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AR39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AS39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AT39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AW39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AX39" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AY39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AZ39" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BA39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BB39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BD39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BE39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BG39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BH39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BI39" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="BJ39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BK39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BL39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BM39" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN39" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -9012,7 +9020,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -9196,7 +9204,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I42" s="1" t="s">
         <v>47</v>
       </c>
@@ -9372,7 +9380,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I43" s="1" t="s">
         <v>48</v>
       </c>
@@ -9548,7 +9556,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I44" s="1" t="s">
         <v>49</v>
       </c>
@@ -9724,7 +9732,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I45" s="1" t="s">
         <v>50</v>
       </c>
@@ -9900,7 +9908,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="46" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I46" s="1" t="s">
         <v>51</v>
       </c>
@@ -10076,7 +10084,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I47" s="1" t="s">
         <v>52</v>
       </c>
@@ -10252,7 +10260,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I48" s="1" t="s">
         <v>53</v>
       </c>
@@ -10428,7 +10436,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I49" s="1" t="s">
         <v>54</v>
       </c>
@@ -10604,7 +10612,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I50" s="1" t="s">
         <v>55</v>
       </c>
@@ -10780,7 +10788,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="51" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I51" s="1" t="s">
         <v>56</v>
       </c>
@@ -10956,7 +10964,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="52" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I52" s="1" t="s">
         <v>57</v>
       </c>
@@ -11132,7 +11140,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="53" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I53" s="1" t="s">
         <v>58</v>
       </c>
@@ -11308,7 +11316,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="54" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I54" s="1" t="s">
         <v>59</v>
       </c>
@@ -11484,7 +11492,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I55" s="1" t="s">
         <v>60</v>
       </c>
@@ -11660,7 +11668,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="56" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I56" s="1" t="s">
         <v>61</v>
       </c>
@@ -11836,7 +11844,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="57" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I57" s="1" t="s">
         <v>62</v>
       </c>
@@ -12012,7 +12020,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="58" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I58" s="1" t="s">
         <v>63</v>
       </c>
@@ -12188,7 +12196,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I59" s="1" t="s">
         <v>64</v>
       </c>
@@ -12364,7 +12372,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I60" s="1" t="s">
         <v>65</v>
       </c>
@@ -12540,7 +12548,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -12724,7 +12732,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="62" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -12908,7 +12916,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -13092,7 +13100,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="64" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I64" s="1" t="s">
         <v>69</v>
       </c>
@@ -13268,7 +13276,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="65" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I65" s="1" t="s">
         <v>70</v>
       </c>
@@ -13444,7 +13452,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="66" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I66" s="1" t="s">
         <v>71</v>
       </c>
@@ -13620,7 +13628,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="67" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I67" s="1" t="s">
         <v>72</v>
       </c>
@@ -13796,7 +13804,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="68" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I68" s="1" t="s">
         <v>73</v>
       </c>
@@ -13972,7 +13980,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="69" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I69" s="1" t="s">
         <v>74</v>
       </c>
@@ -14148,7 +14156,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I70" s="1" t="s">
         <v>75</v>
       </c>
@@ -14324,7 +14332,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="71" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I71" s="1" t="s">
         <v>76</v>
       </c>
@@ -14500,7 +14508,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="72" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I72" s="1" t="s">
         <v>77</v>
       </c>
@@ -14676,7 +14684,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="73" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I73" s="1" t="s">
         <v>78</v>
       </c>
@@ -14852,7 +14860,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="74" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I74" s="1" t="s">
         <v>79</v>
       </c>
@@ -15028,7 +15036,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="75" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I75" s="1" t="s">
         <v>80</v>
       </c>
@@ -15204,7 +15212,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I76" s="1" t="s">
         <v>81</v>
       </c>
@@ -15380,7 +15388,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="77" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I77" s="1" t="s">
         <v>82</v>
       </c>
@@ -15556,7 +15564,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I78" s="1" t="s">
         <v>83</v>
       </c>
@@ -15732,7 +15740,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="79" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I79" s="1" t="s">
         <v>84</v>
       </c>
@@ -15908,7 +15916,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="80" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I80" s="1" t="s">
         <v>85</v>
       </c>
@@ -16084,7 +16092,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="81" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I81" s="1" t="s">
         <v>86</v>
       </c>
@@ -16260,7 +16268,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="82" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I82" s="1" t="s">
         <v>87</v>
       </c>
@@ -16436,7 +16444,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="83" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I83" s="1" t="s">
         <v>88</v>
       </c>
@@ -16612,7 +16620,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="84" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I84" s="1" t="s">
         <v>89</v>
       </c>
@@ -16788,7 +16796,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="85" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="85" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I85" s="1" t="s">
         <v>90</v>
       </c>
@@ -16964,7 +16972,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="86" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I86" s="1" t="s">
         <v>91</v>
       </c>
@@ -17140,7 +17148,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="87" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I87" s="1" t="s">
         <v>92</v>
       </c>
@@ -17316,7 +17324,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="88" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I88" s="1" t="s">
         <v>93</v>
       </c>
@@ -17492,7 +17500,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="89" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I89" s="1" t="s">
         <v>94</v>
       </c>
@@ -17668,7 +17676,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="90" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I90" s="1" t="s">
         <v>95</v>
       </c>
@@ -17844,7 +17852,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="91" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I91" s="1" t="s">
         <v>96</v>
       </c>
@@ -18020,7 +18028,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="92" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="92" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I92" s="1" t="s">
         <v>97</v>
       </c>
@@ -18196,7 +18204,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="93" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I93" s="1" t="s">
         <v>98</v>
       </c>
@@ -18372,7 +18380,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="94" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="94" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I94" s="1" t="s">
         <v>99</v>
       </c>
@@ -18548,7 +18556,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="95" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="95" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I95" s="1" t="s">
         <v>100</v>
       </c>
@@ -18724,7 +18732,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="96" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="96" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I96" s="1" t="s">
         <v>101</v>
       </c>
@@ -18900,7 +18908,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="97" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I97" s="1" t="s">
         <v>102</v>
       </c>
@@ -19076,7 +19084,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="98" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I98" s="1" t="s">
         <v>103</v>
       </c>
@@ -19252,7 +19260,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="99" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I99" s="1" t="s">
         <v>104</v>
       </c>
@@ -19428,7 +19436,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="100" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I100" s="1" t="s">
         <v>105</v>
       </c>
@@ -19604,7 +19612,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="101" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I101" s="1" t="s">
         <v>106</v>
       </c>
@@ -19780,7 +19788,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="102" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I102" s="1" t="s">
         <v>107</v>
       </c>
@@ -19956,7 +19964,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="103" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I103" s="1" t="s">
         <v>108</v>
       </c>
@@ -20132,7 +20140,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I104" s="1" t="s">
         <v>109</v>
       </c>
@@ -20308,7 +20316,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="105" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I105" s="1" t="s">
         <v>110</v>
       </c>
@@ -20484,7 +20492,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I106" s="1" t="s">
         <v>111</v>
       </c>
@@ -20660,7 +20668,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="107" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I107" s="1" t="s">
         <v>112</v>
       </c>
@@ -20836,7 +20844,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="108" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I108" s="1" t="s">
         <v>113</v>
       </c>
@@ -21012,7 +21020,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="109" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="109" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I109" s="1" t="s">
         <v>114</v>
       </c>
@@ -21188,7 +21196,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="110" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I110" s="1" t="s">
         <v>115</v>
       </c>
@@ -21364,7 +21372,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="111" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I111" s="1" t="s">
         <v>116</v>
       </c>
@@ -21540,7 +21548,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="112" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I112" s="1" t="s">
         <v>117</v>
       </c>
@@ -21716,7 +21724,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="113" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="113" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I113" s="1" t="s">
         <v>118</v>
       </c>
@@ -21892,7 +21900,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="114" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="114" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I114" s="1" t="s">
         <v>119</v>
       </c>
@@ -22068,7 +22076,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="115" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I115" s="1" t="s">
         <v>120</v>
       </c>
@@ -22244,7 +22252,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="116" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="116" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I116" s="1" t="s">
         <v>121</v>
       </c>
@@ -22420,7 +22428,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="117" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I117" s="1" t="s">
         <v>122</v>
       </c>
@@ -22596,7 +22604,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="118" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I118" s="1" t="s">
         <v>123</v>
       </c>
@@ -22772,7 +22780,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="119" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="119" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I119" s="1" t="s">
         <v>124</v>
       </c>
@@ -22948,7 +22956,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="120" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I120" s="1" t="s">
         <v>125</v>
       </c>
@@ -23124,7 +23132,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="121" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I121" s="1" t="s">
         <v>126</v>
       </c>
@@ -23300,7 +23308,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="122" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I122" s="1" t="s">
         <v>127</v>
       </c>
@@ -23476,7 +23484,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="123" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I123" s="1" t="s">
         <v>128</v>
       </c>
@@ -23652,7 +23660,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="124" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="124" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I124" s="1" t="s">
         <v>129</v>
       </c>
@@ -23828,7 +23836,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="125" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="125" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I125" s="1" t="s">
         <v>130</v>
       </c>
@@ -24004,7 +24012,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="126" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="126" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I126" s="1" t="s">
         <v>131</v>
       </c>
@@ -24180,7 +24188,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="127" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="127" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I127" s="1" t="s">
         <v>132</v>
       </c>
@@ -24356,7 +24364,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="128" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="128" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I128" s="1" t="s">
         <v>133</v>
       </c>
@@ -24532,7 +24540,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="129" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I129" s="1" t="s">
         <v>134</v>
       </c>
@@ -24708,7 +24716,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="130" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I130" s="1" t="s">
         <v>135</v>
       </c>
@@ -24884,7 +24892,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="131" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I131" s="1" t="s">
         <v>136</v>
       </c>
@@ -25060,7 +25068,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="132" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I132" s="1" t="s">
         <v>137</v>
       </c>
@@ -25236,7 +25244,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="133" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I133" s="1" t="s">
         <v>138</v>
       </c>
@@ -25412,7 +25420,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="134" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I134" s="1" t="s">
         <v>139</v>
       </c>
@@ -25588,7 +25596,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="135" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I135" s="1" t="s">
         <v>140</v>
       </c>
@@ -25764,7 +25772,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="136" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I136" s="1" t="s">
         <v>141</v>
       </c>
@@ -25940,7 +25948,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="137" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I137" s="1" t="s">
         <v>142</v>
       </c>
@@ -26116,7 +26124,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="138" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I138" s="1" t="s">
         <v>143</v>
       </c>
@@ -26292,7 +26300,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="139" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I139" s="1" t="s">
         <v>144</v>
       </c>
@@ -26468,7 +26476,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="140" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I140" s="1" t="s">
         <v>145</v>
       </c>
@@ -26644,7 +26652,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="141" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I141" s="1" t="s">
         <v>146</v>
       </c>
@@ -26820,7 +26828,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="142" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I142" s="1" t="s">
         <v>147</v>
       </c>
@@ -26996,7 +27004,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="143" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I143" s="1" t="s">
         <v>148</v>
       </c>
@@ -27172,7 +27180,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="144" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I144" s="1" t="s">
         <v>149</v>
       </c>
@@ -27348,7 +27356,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="145" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I145" s="1" t="s">
         <v>150</v>
       </c>
@@ -27524,7 +27532,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="146" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I146" s="1" t="s">
         <v>151</v>
       </c>
@@ -27700,7 +27708,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="147" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I147" s="1" t="s">
         <v>152</v>
       </c>
@@ -27876,7 +27884,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="148" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I148" s="1" t="s">
         <v>153</v>
       </c>
@@ -28052,7 +28060,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="149" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I149" s="1" t="s">
         <v>154</v>
       </c>
@@ -28228,7 +28236,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="150" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I150" s="1" t="s">
         <v>155</v>
       </c>
@@ -28404,7 +28412,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="151" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I151" s="1" t="s">
         <v>156</v>
       </c>
@@ -28580,7 +28588,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="152" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:66" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -28764,7 +28772,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="153" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I153" s="1" t="s">
         <v>158</v>
       </c>
@@ -28940,7 +28948,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="154" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I154" s="1" t="s">
         <v>159</v>
       </c>
@@ -29116,7 +29124,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I155" s="1" t="s">
         <v>160</v>
       </c>
@@ -29292,7 +29300,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="156" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I156" s="1" t="s">
         <v>161</v>
       </c>
@@ -29468,7 +29476,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="157" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I157" s="1" t="s">
         <v>162</v>
       </c>
@@ -29644,7 +29652,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="158" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I158" s="1" t="s">
         <v>163</v>
       </c>
@@ -29820,7 +29828,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="159" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I159" s="1" t="s">
         <v>164</v>
       </c>
@@ -29996,7 +30004,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="160" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:66" x14ac:dyDescent="0.35">
       <c r="I160" s="1" t="s">
         <v>165</v>
       </c>
@@ -30172,7 +30180,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="161" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="161" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I161" s="1" t="s">
         <v>166</v>
       </c>
@@ -30348,7 +30356,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="162" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="162" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I162" s="1" t="s">
         <v>167</v>
       </c>
@@ -30524,7 +30532,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="163" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="163" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I163" s="1" t="s">
         <v>168</v>
       </c>
@@ -30700,7 +30708,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="164" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="164" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I164" s="1" t="s">
         <v>169</v>
       </c>
@@ -30876,7 +30884,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="165" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I165" s="1" t="s">
         <v>170</v>
       </c>
@@ -31052,7 +31060,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="166" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I166" s="1" t="s">
         <v>171</v>
       </c>
@@ -31228,7 +31236,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="167" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="167" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I167" s="1" t="s">
         <v>172</v>
       </c>
@@ -31404,7 +31412,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="168" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="168" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I168" s="1" t="s">
         <v>173</v>
       </c>
@@ -31580,7 +31588,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="169" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="169" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I169" s="1" t="s">
         <v>174</v>
       </c>
@@ -31756,7 +31764,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="170" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="170" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I170" s="1" t="s">
         <v>175</v>
       </c>
@@ -31932,7 +31940,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="171" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="171" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I171" s="1" t="s">
         <v>176</v>
       </c>
@@ -32108,7 +32116,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="172" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="172" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I172" s="1" t="s">
         <v>177</v>
       </c>
@@ -32284,7 +32292,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="173" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="173" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I173" s="1" t="s">
         <v>178</v>
       </c>
@@ -32460,7 +32468,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="174" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="174" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I174" s="1" t="s">
         <v>179</v>
       </c>
@@ -32636,7 +32644,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="175" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="175" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I175" s="1" t="s">
         <v>180</v>
       </c>
@@ -32812,7 +32820,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="176" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="176" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I176" s="1" t="s">
         <v>181</v>
       </c>
@@ -32988,7 +32996,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="177" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I177" s="1" t="s">
         <v>182</v>
       </c>
@@ -33164,7 +33172,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="178" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I178" s="1" t="s">
         <v>183</v>
       </c>
@@ -33340,7 +33348,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="179" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="179" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I179" s="1" t="s">
         <v>184</v>
       </c>
@@ -33516,7 +33524,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="180" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="180" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I180" s="1" t="s">
         <v>185</v>
       </c>
@@ -33692,7 +33700,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="181" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="181" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I181" s="1" t="s">
         <v>186</v>
       </c>
@@ -33868,7 +33876,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="182" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="182" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I182" s="1" t="s">
         <v>187</v>
       </c>
@@ -34044,7 +34052,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="183" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I183" s="1" t="s">
         <v>188</v>
       </c>
@@ -34220,7 +34228,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="184" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I184" s="1" t="s">
         <v>189</v>
       </c>
@@ -34396,7 +34404,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="185" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="185" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I185" s="1" t="s">
         <v>190</v>
       </c>
@@ -34572,7 +34580,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="186" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="186" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I186" s="1" t="s">
         <v>191</v>
       </c>
@@ -34748,7 +34756,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="187" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I187" s="1" t="s">
         <v>192</v>
       </c>
@@ -34924,7 +34932,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="188" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I188" s="1" t="s">
         <v>193</v>
       </c>
@@ -35100,7 +35108,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="189" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="189" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I189" s="1" t="s">
         <v>194</v>
       </c>
@@ -35276,7 +35284,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="190" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="190" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I190" s="1" t="s">
         <v>195</v>
       </c>
@@ -35452,7 +35460,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="191" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="191" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I191" s="1" t="s">
         <v>196</v>
       </c>
@@ -35628,7 +35636,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="192" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="192" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I192" s="1" t="s">
         <v>197</v>
       </c>
@@ -35804,7 +35812,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="193" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="193" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I193" s="1" t="s">
         <v>198</v>
       </c>
@@ -35980,7 +35988,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="194" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="194" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I194" s="1" t="s">
         <v>199</v>
       </c>
@@ -36156,7 +36164,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="195" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I195" s="1" t="s">
         <v>200</v>
       </c>
@@ -36332,7 +36340,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="196" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="196" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I196" s="1" t="s">
         <v>201</v>
       </c>
@@ -36508,7 +36516,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="197" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="197" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I197" s="1" t="s">
         <v>202</v>
       </c>
@@ -36684,7 +36692,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="198" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="198" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I198" s="1" t="s">
         <v>203</v>
       </c>
@@ -36860,7 +36868,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="199" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="199" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I199" s="1" t="s">
         <v>204</v>
       </c>
@@ -37036,7 +37044,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="200" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="200" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I200" s="1" t="s">
         <v>205</v>
       </c>
@@ -37212,7 +37220,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="201" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="201" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I201" s="1" t="s">
         <v>206</v>
       </c>
@@ -37388,7 +37396,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="202" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="202" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I202" s="1" t="s">
         <v>207</v>
       </c>
@@ -37564,7 +37572,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="203" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="203" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I203" s="1" t="s">
         <v>208</v>
       </c>
@@ -37740,7 +37748,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="204" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="204" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I204" s="1" t="s">
         <v>209</v>
       </c>
@@ -37916,7 +37924,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="205" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="205" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I205" s="1" t="s">
         <v>210</v>
       </c>
@@ -38092,7 +38100,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="206" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="206" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I206" s="1" t="s">
         <v>211</v>
       </c>
@@ -38268,7 +38276,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="207" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="207" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I207" s="1" t="s">
         <v>212</v>
       </c>
@@ -38444,7 +38452,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="208" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="208" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I208" s="1" t="s">
         <v>213</v>
       </c>
@@ -38620,7 +38628,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="209" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="209" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I209" s="1" t="s">
         <v>214</v>
       </c>
@@ -38796,7 +38804,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="210" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="210" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I210" s="1" t="s">
         <v>215</v>
       </c>
@@ -38972,7 +38980,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="211" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="211" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I211" s="1" t="s">
         <v>216</v>
       </c>
@@ -39148,7 +39156,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="212" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="212" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I212" s="1" t="s">
         <v>217</v>
       </c>
@@ -39324,7 +39332,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="213" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="213" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I213" s="1" t="s">
         <v>218</v>
       </c>
@@ -39500,7 +39508,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="214" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="214" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I214" s="1" t="s">
         <v>219</v>
       </c>
@@ -39676,7 +39684,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="215" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="215" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I215" s="1" t="s">
         <v>220</v>
       </c>
@@ -39852,7 +39860,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="216" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="216" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I216" s="1" t="s">
         <v>221</v>
       </c>
@@ -40028,7 +40036,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="217" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="217" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I217" s="1" t="s">
         <v>222</v>
       </c>
@@ -40204,7 +40212,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="218" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="218" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I218" s="1" t="s">
         <v>223</v>
       </c>
@@ -40380,7 +40388,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="219" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="219" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I219" s="1" t="s">
         <v>224</v>
       </c>
@@ -40556,7 +40564,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="220" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="220" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I220" s="1" t="s">
         <v>225</v>
       </c>
@@ -40732,7 +40740,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="221" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="221" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I221" s="1" t="s">
         <v>226</v>
       </c>
@@ -40908,7 +40916,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="222" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="222" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I222" s="1" t="s">
         <v>227</v>
       </c>
@@ -41084,7 +41092,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="223" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="223" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I223" s="1" t="s">
         <v>228</v>
       </c>
@@ -41260,7 +41268,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="224" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="224" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I224" s="1" t="s">
         <v>229</v>
       </c>
@@ -41436,7 +41444,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="225" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="225" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I225" s="1" t="s">
         <v>230</v>
       </c>
@@ -41612,7 +41620,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="226" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="226" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I226" s="1" t="s">
         <v>231</v>
       </c>
@@ -41788,7 +41796,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="227" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="227" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I227" s="1" t="s">
         <v>232</v>
       </c>
@@ -41964,7 +41972,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="228" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="228" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I228" s="1" t="s">
         <v>233</v>
       </c>
@@ -42140,7 +42148,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="229" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="229" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I229" s="1" t="s">
         <v>234</v>
       </c>
@@ -42316,7 +42324,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="230" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="230" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I230" s="1" t="s">
         <v>235</v>
       </c>
@@ -42492,7 +42500,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="231" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="231" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I231" s="1" t="s">
         <v>236</v>
       </c>
@@ -42668,7 +42676,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="232" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="232" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I232" s="1" t="s">
         <v>237</v>
       </c>
@@ -42844,7 +42852,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="233" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="233" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I233" s="1" t="s">
         <v>238</v>
       </c>
@@ -43020,7 +43028,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="234" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="234" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I234" s="1" t="s">
         <v>239</v>
       </c>
@@ -43196,7 +43204,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="235" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="235" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I235" s="1" t="s">
         <v>240</v>
       </c>
@@ -43372,7 +43380,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="236" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="236" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I236" s="1" t="s">
         <v>241</v>
       </c>
@@ -43548,7 +43556,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="237" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="237" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I237" s="1" t="s">
         <v>242</v>
       </c>
@@ -43724,7 +43732,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="238" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="238" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I238" s="1" t="s">
         <v>243</v>
       </c>
@@ -43900,7 +43908,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="239" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="239" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I239" s="1" t="s">
         <v>244</v>
       </c>
@@ -44076,7 +44084,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="240" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="240" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I240" s="1" t="s">
         <v>245</v>
       </c>
@@ -44252,7 +44260,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="241" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="241" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I241" s="1" t="s">
         <v>246</v>
       </c>
@@ -44428,7 +44436,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="242" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="242" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I242" s="1" t="s">
         <v>247</v>
       </c>
@@ -44604,7 +44612,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="243" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="243" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I243" s="1" t="s">
         <v>248</v>
       </c>
@@ -44780,7 +44788,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="244" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I244" s="1" t="s">
         <v>249</v>
       </c>
@@ -44956,7 +44964,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="245" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="245" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I245" s="1" t="s">
         <v>250</v>
       </c>
@@ -45132,7 +45140,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="246" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="246" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I246" s="1" t="s">
         <v>251</v>
       </c>
@@ -45308,7 +45316,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="247" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="247" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I247" s="1" t="s">
         <v>252</v>
       </c>
@@ -45484,7 +45492,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="248" spans="9:66" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:66" x14ac:dyDescent="0.35">
       <c r="I248" s="1" t="s">
         <v>253</v>
       </c>
